--- a/Release/STEP-File-Analyzer-Release-Notes-5.40.xlsx
+++ b/Release/STEP-File-Analyzer-Release-Notes-5.40.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lipman\Documents\Analyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC42C850-4D5A-4275-96AD-65419ABB85E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C58B0B-52B6-4ABD-A7CB-AB7CD94D9583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="1800" windowWidth="19752" windowHeight="12600" xr2:uid="{9B3F6E53-A28B-4521-AF15-47DA96234229}"/>
+    <workbookView xWindow="1452" yWindow="792" windowWidth="19752" windowHeight="12600" xr2:uid="{9B3F6E53-A28B-4521-AF15-47DA96234229}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="9" r:id="rId1"/>
@@ -2541,7 +2541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A818D09-B4C1-4A88-BE09-4F7AA7A1D236}">
   <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -2549,7 +2549,7 @@
   <cols>
     <col min="1" max="1" width="8.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="120.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="129.77734375" style="3" customWidth="1"/>
     <col min="4" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
@@ -2586,6 +2586,9 @@
     <row r="6" spans="1:3" ht="288" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>220</v>
+      </c>
+      <c r="B6" s="6">
+        <v>46006</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>221</v>
